--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Riesgos de GreenMarket.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Riesgos de GreenMarket.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="SCOquwUJMNeHYqhiQI9PAswGz5XYrkaxozKG4Q/89cY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="ce1OjqhES1838ALzfmp7o7BlZMniXyRc4gU7Ye8Xqz8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="285">
   <si>
     <t>&lt;</t>
   </si>
@@ -1012,7 +1012,7 @@
     <t>Creación del código que implementa las funcionalidades especificadas en los requisitos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Generen retrasos a la hora de creear las funcionalidades </t>
+    <t xml:space="preserve">Generen retrasos a la hora de crear las funcionalidades </t>
   </si>
   <si>
     <t xml:space="preserve">Falta de conocimietos a la hora de crear las funcionalidades </t>
@@ -1062,11 +1062,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-Mitigacion contso de personal realizando la mitigacion es :
+Mitigacion costo de personal realizando la mitigacion es :
 38.769 jp
 24.924 ig
 63.693
-Contingencia se destinarta 600.000</t>
+Contingencia se destinara 600.000</t>
   </si>
   <si>
     <t>Integración Continua</t>
@@ -2042,6 +2042,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Generen retrasos a la hora de creear las funcionalidades </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2080,6 +2083,14 @@
       </rPr>
       <t>Redistribución de recursos y ajuste del cronograma: En caso de que el desarrollo de funcionalidades críticas se retrase, se implementará una redistribución de recursos dentro del equipo de desarrollo, priorizando las tareas más importantes para cumplir con los plazos críticos. Esto puede incluir reasignar desarrolladores experimentados a funcionalidades que requieren mayor atención, así como la contratación temporal de personal externo si fuera necesario. Se revisará y ajustará el cronograma del proyecto, enfocándose en una entrega por fases o parciales de las funcionalidades críticas, permitiendo avanzar en otras áreas del proyecto mientras se completan las partes atrasadas.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mitigacion contso de personal realizando la mitigacion es :
+38.769 jp
+24.924 ig
+63.693
+Contingencia se destinarta 600.000</t>
   </si>
   <si>
     <r>
@@ -36035,7 +36046,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="5.57"/>
     <col customWidth="1" min="2" max="2" width="35.29"/>
-    <col customWidth="1" min="3" max="3" width="34.29"/>
+    <col customWidth="1" min="3" max="3" width="0.43"/>
     <col customWidth="1" min="4" max="4" width="30.71"/>
     <col customWidth="1" min="5" max="6" width="30.0"/>
     <col customWidth="1" min="7" max="7" width="28.14"/>
@@ -37509,7 +37520,7 @@
         <v>23</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="I27" s="23" t="s">
         <v>157</v>
@@ -37528,10 +37539,10 @@
         <v>20</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="P27" s="147">
         <v>18.0</v>
@@ -37632,7 +37643,7 @@
         <v>168</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J29" s="24" t="s">
         <v>170</v>
@@ -37953,7 +37964,7 @@
         <v>15</v>
       </c>
       <c r="N35" s="37" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O35" s="27" t="s">
         <v>198</v>
@@ -38125,7 +38136,7 @@
         <v>15</v>
       </c>
       <c r="N38" s="37" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O38" s="27" t="s">
         <v>215</v>
@@ -38188,7 +38199,7 @@
         <v>15</v>
       </c>
       <c r="N39" s="26" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O39" s="58" t="s">
         <v>222</v>
@@ -38923,7 +38934,7 @@
     <row r="57" ht="52.5" customHeight="1">
       <c r="A57" s="16"/>
       <c r="C57" s="146" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
